--- a/TP/01_Induction_NAO/Cy_06_Ene_TP_NAO.xlsx
+++ b/TP/01_Induction_NAO/Cy_06_Ene_TP_NAO.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F689FF6-E242-4F70-994D-D2B6735D1AB6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -64,8 +63,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,17 +100,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -192,23 +204,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -244,23 +239,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,22 +414,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" customWidth="1"/>
-    <col min="11" max="11" width="12.81640625" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -477,7 +455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -506,20 +484,20 @@
         <f>C2*E2^2*G2^2</f>
         <v>3.8406445384699546E-9</v>
       </c>
-      <c r="J2">
-        <f>I2/$I$7*100</f>
-        <v>0.76343501759179899</v>
+      <c r="J2" s="4">
+        <f>I2/$I$7</f>
+        <v>7.6343501759179901E-3</v>
       </c>
       <c r="K2">
         <f>D2*(F2+G2)^2</f>
         <v>4.919905402648042E-7</v>
       </c>
-      <c r="L2">
-        <f>K2/$I$7*100</f>
-        <v>97.796815872914138</v>
+      <c r="L2" s="4">
+        <f>K2/$I$7</f>
+        <v>0.97796815872914145</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -548,20 +526,20 @@
         <f t="shared" ref="I3:I5" si="1">C3*E3^2*G3^2</f>
         <v>6.9141024079715075E-11</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J5" si="2">I3/$I$7*100</f>
-        <v>1.3743703278419192E-2</v>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J5" si="2">I3/$I$7</f>
+        <v>1.3743703278419191E-4</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K5" si="3">D3*(F3+G3)^2</f>
         <v>5.2710440400424995E-9</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L5" si="4">K3/$I$7*100</f>
-        <v>1.0477667378820024</v>
+      <c r="L3" s="4">
+        <f t="shared" ref="L3:L5" si="4">K3/$I$7</f>
+        <v>1.0477667378820023E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -590,20 +568,20 @@
         <f t="shared" si="1"/>
         <v>1.2074258192489322E-11</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4">
         <f t="shared" si="2"/>
-        <v>2.4000949380395572E-3</v>
+        <v>2.4000949380395571E-5</v>
       </c>
       <c r="K4">
         <f t="shared" si="3"/>
         <v>5.8999258943597419E-10</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="4">
         <f t="shared" si="4"/>
-        <v>0.11727745131928399</v>
+        <v>1.1727745131928399E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -632,7 +610,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -640,12 +618,12 @@
         <f t="shared" si="3"/>
         <v>1.300754273095122E-9</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="4">
         <f t="shared" si="4"/>
-        <v>0.25856112207629411</v>
+        <v>2.5856112207629412E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -663,24 +641,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TP/01_Induction_NAO/Cy_06_Ene_TP_NAO.xlsx
+++ b/TP/01_Induction_NAO/Cy_06_Ene_TP_NAO.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F689FF6-E242-4F70-994D-D2B6735D1AB6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A390006-C1FA-4F7F-8506-817A6AD6BA83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>r3/r0*k3</t>
   </si>
   <si>
-    <t>Inetie "Translation"</t>
-  </si>
-  <si>
     <t>Inertie "Rotation"</t>
   </si>
   <si>
@@ -59,13 +56,23 @@
   </si>
   <si>
     <t>Masse (g)</t>
+  </si>
+  <si>
+    <t>Inertie "Translation"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,17 +98,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -440,7 +450,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -453,10 +463,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -471,10 +481,10 @@
         <v>8</v>
       </c>
       <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -506,17 +516,17 @@
         <f>C2*E2^2*G2^2</f>
         <v>3.8406445384699546E-9</v>
       </c>
-      <c r="J2">
-        <f>I2/$I$7*100</f>
-        <v>0.76343501759179899</v>
+      <c r="J2" s="4">
+        <f>I2/$I$7</f>
+        <v>7.6343501759179901E-3</v>
       </c>
       <c r="K2">
         <f>D2*(F2+G2)^2</f>
         <v>4.919905402648042E-7</v>
       </c>
-      <c r="L2">
-        <f>K2/$I$7*100</f>
-        <v>97.796815872914138</v>
+      <c r="L2" s="4">
+        <f>K2/$I$7</f>
+        <v>0.97796815872914145</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -548,17 +558,17 @@
         <f t="shared" ref="I3:I5" si="1">C3*E3^2*G3^2</f>
         <v>6.9141024079715075E-11</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J5" si="2">I3/$I$7*100</f>
-        <v>1.3743703278419192E-2</v>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J5" si="2">I3/$I$7</f>
+        <v>1.3743703278419191E-4</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K5" si="3">D3*(F3+G3)^2</f>
         <v>5.2710440400424995E-9</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L5" si="4">K3/$I$7*100</f>
-        <v>1.0477667378820024</v>
+      <c r="L3" s="4">
+        <f t="shared" ref="L3:L5" si="4">K3/$I$7</f>
+        <v>1.0477667378820023E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -590,17 +600,17 @@
         <f t="shared" si="1"/>
         <v>1.2074258192489322E-11</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4">
         <f t="shared" si="2"/>
-        <v>2.4000949380395572E-3</v>
+        <v>2.4000949380395571E-5</v>
       </c>
       <c r="K4">
         <f t="shared" si="3"/>
         <v>5.8999258943597419E-10</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="4">
         <f t="shared" si="4"/>
-        <v>0.11727745131928399</v>
+        <v>1.1727745131928399E-3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -632,7 +642,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -640,9 +650,9 @@
         <f t="shared" si="3"/>
         <v>1.300754273095122E-9</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="4">
         <f t="shared" si="4"/>
-        <v>0.25856112207629411</v>
+        <v>2.5856112207629412E-3</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -650,7 +660,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7">
         <f>SUM(I2:I5,K2:K5)</f>
